--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/炼焦、燃气及石油加工业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/炼焦、燃气及石油加工业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.820845460523649</v>
+        <v>0.801574996252953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001973807553594</v>
+        <v>0.001481047281706</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004784234916717</v>
+        <v>0.003492823907948</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8173247614e-05</v>
+        <v>2.2159881754e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05358356721141</v>
+        <v>0.032307823650345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018018653133964</v>
+        <v>0.018643061943759</v>
       </c>
       <c r="I2" t="n">
-        <v>0.035704806210957</v>
+        <v>0.023942985472457</v>
       </c>
       <c r="J2" t="n">
-        <v>0.179154539476351</v>
+        <v>0.198425003747047</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000560532140926</v>
+        <v>0.000479967822053</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005416949779941</v>
+        <v>0.004750385938013</v>
       </c>
       <c r="M2" t="n">
-        <v>0.016549692082544</v>
+        <v>0.01343776103938</v>
       </c>
       <c r="N2" t="n">
-        <v>0.023568307005472</v>
+        <v>0.017711779956464</v>
       </c>
       <c r="O2" t="n">
-        <v>0.059682773161563</v>
+        <v>0.060417050807571</v>
       </c>
       <c r="P2" t="n">
-        <v>0.048367398936114</v>
+        <v>0.106663839100422</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02320453841072</v>
+        <v>0.018187050475694</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001060719474799</v>
+        <v>0.000464203371903</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04149876711787</v>
+        <v>0.035510355523822</v>
       </c>
       <c r="T2" t="n">
-        <v>0.028403442569345</v>
+        <v>0.022066759872648</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6147796268935199</v>
+        <v>0.622735272308689</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005138813568216</v>
+        <v>0.003839450073122</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007983618428704001</v>
+        <v>0.005835697182498</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003980062250028</v>
+        <v>0.003374598599728</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005711515905979</v>
+        <v>0.004635925790022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.801574996252953</v>
+        <v>0.811801499585926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001481047281706</v>
+        <v>0.001417289180697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003492823907948</v>
+        <v>0.00401879361889</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2159881754e-05</v>
+        <v>4.4507994322e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.032307823650345</v>
+        <v>0.038891508033672</v>
       </c>
       <c r="H3" t="n">
-        <v>0.018643061943759</v>
+        <v>0.023387817764164</v>
       </c>
       <c r="I3" t="n">
-        <v>0.023942985472457</v>
+        <v>0.024046475274318</v>
       </c>
       <c r="J3" t="n">
-        <v>0.198425003747047</v>
+        <v>0.188198500414074</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000479967822053</v>
+        <v>0.001322447295998</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004750385938013</v>
+        <v>0.00577832692344</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01343776103938</v>
+        <v>0.012502032760067</v>
       </c>
       <c r="N3" t="n">
-        <v>0.017711779956464</v>
+        <v>0.012733735542343</v>
       </c>
       <c r="O3" t="n">
-        <v>0.060417050807571</v>
+        <v>0.075213235178097</v>
       </c>
       <c r="P3" t="n">
-        <v>0.106663839100422</v>
+        <v>0.096255930271088</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.018187050475694</v>
+        <v>0.016694692208734</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000464203371903</v>
+        <v>0.000765335168193</v>
       </c>
       <c r="S3" t="n">
-        <v>0.035510355523822</v>
+        <v>0.029004586834997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.022066759872648</v>
+        <v>0.018972440863962</v>
       </c>
       <c r="U3" t="n">
-        <v>0.622735272308689</v>
+        <v>0.611395473415408</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003839450073122</v>
+        <v>0.0008797051550410001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005835697182498</v>
+        <v>0.01434019841788</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003374598599728</v>
+        <v>0.006724994948691</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004635925790022</v>
+        <v>0.005610473149999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.811801499585926</v>
+        <v>0.789529389883464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001417289180697</v>
+        <v>0.003003296782584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00401879361889</v>
+        <v>0.009666251850839001</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4507994322e-05</v>
+        <v>6.0851280173e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.038891508033672</v>
+        <v>0.033980828302118</v>
       </c>
       <c r="H4" t="n">
-        <v>0.023387817764164</v>
+        <v>0.038896092554474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.024046475274318</v>
+        <v>0.021870202160213</v>
       </c>
       <c r="J4" t="n">
-        <v>0.188198500414074</v>
+        <v>0.210470610116535</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001322447295998</v>
+        <v>0.002590342711775</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00577832692344</v>
+        <v>0.015392591458701</v>
       </c>
       <c r="M4" t="n">
-        <v>0.012502032760067</v>
+        <v>0.026384943084289</v>
       </c>
       <c r="N4" t="n">
-        <v>0.012733735542343</v>
+        <v>0.023586061304237</v>
       </c>
       <c r="O4" t="n">
-        <v>0.075213235178097</v>
+        <v>0.114187868040127</v>
       </c>
       <c r="P4" t="n">
-        <v>0.096255930271088</v>
+        <v>0.107461988389253</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.016694692208734</v>
+        <v>0.035374794960051</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000765335168193</v>
+        <v>0.001958035046643</v>
       </c>
       <c r="S4" t="n">
-        <v>0.029004586834997</v>
+        <v>0.047157591264952</v>
       </c>
       <c r="T4" t="n">
-        <v>0.018972440863962</v>
+        <v>0.030078970660192</v>
       </c>
       <c r="U4" t="n">
-        <v>0.611395473415408</v>
+        <v>0.434903256126471</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0008797051550410001</v>
+        <v>0.001520199156072</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01434019841788</v>
+        <v>0.031833719521952</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006724994948691</v>
+        <v>0.00708047474426</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005610473149999</v>
+        <v>0.013011640600628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789529389883464</v>
+        <v>0.7639853364877029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003003296782584</v>
+        <v>0.002418378884873</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009666251850839001</v>
+        <v>0.02901486950394</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0851280173e-05</v>
+        <v>0.027518118003371</v>
       </c>
       <c r="G5" t="n">
-        <v>0.033980828302118</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.038896092554474</v>
-      </c>
+        <v>0.066625442448334</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.021870202160213</v>
+        <v>0.028701674367373</v>
       </c>
       <c r="J5" t="n">
-        <v>0.210470610116535</v>
+        <v>0.236014663512297</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002590342711775</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.015392591458701</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.026384943084289</v>
-      </c>
+        <v>0.000250573998557</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.023586061304237</v>
+        <v>0.01133708877463</v>
       </c>
       <c r="O5" t="n">
-        <v>0.114187868040127</v>
+        <v>0.377327285018826</v>
       </c>
       <c r="P5" t="n">
-        <v>0.107461988389253</v>
+        <v>0.073231097269744</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.035374794960051</v>
+        <v>0.033535314677445</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001958035046643</v>
+        <v>0.005797418925746</v>
       </c>
       <c r="S5" t="n">
-        <v>0.047157591264952</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.030078970660192</v>
-      </c>
+        <v>0.067456449426846</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.434903256126471</v>
+        <v>0.138074987900508</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001520199156072</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.031833719521952</v>
-      </c>
+        <v>0.012490314750484</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.00708047474426</v>
+        <v>0.005547556359664</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.013011640600628</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7639853364877029</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.002418378884873</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02901486950394</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.027518118003371</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.066625442448334</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.028701674367373</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.236014663512297</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000250573998557</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.01133708877463</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.377327285018826</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.073231097269744</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.033535314677445</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.005797418925746</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.067456449426846</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.138074987900508</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.012490314750484</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.005547556359664</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.018716953313296</v>
       </c>
     </row>
